--- a/natmiOut/YoungD4/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
@@ -534,52 +534,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.3894595702762</v>
+        <v>5.411649666666666</v>
       </c>
       <c r="H2">
-        <v>5.3894595702762</v>
+        <v>16.234949</v>
       </c>
       <c r="I2">
-        <v>0.1881722537012873</v>
+        <v>0.1787865280277313</v>
       </c>
       <c r="J2">
-        <v>0.1881722537012873</v>
+        <v>0.1787865280277313</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.34219701339287</v>
+        <v>5.348457333333333</v>
       </c>
       <c r="N2">
-        <v>5.34219701339287</v>
+        <v>16.045372</v>
       </c>
       <c r="O2">
-        <v>0.6104165821201774</v>
+        <v>0.4996811083875221</v>
       </c>
       <c r="P2">
-        <v>0.6104165821201774</v>
+        <v>0.499681108387522</v>
       </c>
       <c r="Q2">
-        <v>28.79155482013113</v>
+        <v>28.94397734511422</v>
       </c>
       <c r="R2">
-        <v>28.79155482013113</v>
+        <v>260.495796106028</v>
       </c>
       <c r="S2">
-        <v>0.1148634639541907</v>
+        <v>0.08933625048965355</v>
       </c>
       <c r="T2">
-        <v>0.1148634639541907</v>
+        <v>0.08933625048965353</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.3894595702762</v>
+        <v>5.411649666666666</v>
       </c>
       <c r="H3">
-        <v>5.3894595702762</v>
+        <v>16.234949</v>
       </c>
       <c r="I3">
-        <v>0.1881722537012873</v>
+        <v>0.1787865280277313</v>
       </c>
       <c r="J3">
-        <v>0.1881722537012873</v>
+        <v>0.1787865280277313</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.40952626849712</v>
+        <v>5.355284000000001</v>
       </c>
       <c r="N3">
-        <v>3.40952626849712</v>
+        <v>16.065852</v>
       </c>
       <c r="O3">
-        <v>0.3895834178798225</v>
+        <v>0.500318891612478</v>
       </c>
       <c r="P3">
-        <v>0.3895834178798225</v>
+        <v>0.5003188916124779</v>
       </c>
       <c r="Q3">
-        <v>18.3755039778599</v>
+        <v>28.98092087350534</v>
       </c>
       <c r="R3">
-        <v>18.3755039778599</v>
+        <v>260.8282878615481</v>
       </c>
       <c r="S3">
-        <v>0.07330878974709661</v>
+        <v>0.08945027753807776</v>
       </c>
       <c r="T3">
-        <v>0.07330878974709661</v>
+        <v>0.08945027753807773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.89004835435508</v>
+        <v>1.999757</v>
       </c>
       <c r="H4">
-        <v>1.89004835435508</v>
+        <v>5.999271</v>
       </c>
       <c r="I4">
-        <v>0.06599078326979231</v>
+        <v>0.06606665858866914</v>
       </c>
       <c r="J4">
-        <v>0.06599078326979231</v>
+        <v>0.06606665858866914</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.34219701339287</v>
+        <v>5.348457333333333</v>
       </c>
       <c r="N4">
-        <v>5.34219701339287</v>
+        <v>16.045372</v>
       </c>
       <c r="O4">
-        <v>0.6104165821201774</v>
+        <v>0.4996811083875221</v>
       </c>
       <c r="P4">
-        <v>0.6104165821201774</v>
+        <v>0.499681108387522</v>
       </c>
       <c r="Q4">
-        <v>10.09701067380382</v>
+        <v>10.69561499153467</v>
       </c>
       <c r="R4">
-        <v>10.09701067380382</v>
+        <v>96.260534923812</v>
       </c>
       <c r="S4">
-        <v>0.04028186837498</v>
+        <v>0.0330122611910462</v>
       </c>
       <c r="T4">
-        <v>0.04028186837498</v>
+        <v>0.03301226119104619</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.89004835435508</v>
+        <v>1.999757</v>
       </c>
       <c r="H5">
-        <v>1.89004835435508</v>
+        <v>5.999271</v>
       </c>
       <c r="I5">
-        <v>0.06599078326979231</v>
+        <v>0.06606665858866914</v>
       </c>
       <c r="J5">
-        <v>0.06599078326979231</v>
+        <v>0.06606665858866914</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.40952626849712</v>
+        <v>5.355284000000001</v>
       </c>
       <c r="N5">
-        <v>3.40952626849712</v>
+        <v>16.065852</v>
       </c>
       <c r="O5">
-        <v>0.3895834178798225</v>
+        <v>0.500318891612478</v>
       </c>
       <c r="P5">
-        <v>0.3895834178798225</v>
+        <v>0.5003188916124779</v>
       </c>
       <c r="Q5">
-        <v>6.444169512903398</v>
+        <v>10.709266665988</v>
       </c>
       <c r="R5">
-        <v>6.444169512903398</v>
+        <v>96.38339999389203</v>
       </c>
       <c r="S5">
-        <v>0.0257089148948123</v>
+        <v>0.03305439739762295</v>
       </c>
       <c r="T5">
-        <v>0.0257089148948123</v>
+        <v>0.03305439739762294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.9424805612067</v>
+        <v>12.42498166666667</v>
       </c>
       <c r="H6">
-        <v>11.9424805612067</v>
+        <v>37.274945</v>
       </c>
       <c r="I6">
-        <v>0.4169700974064292</v>
+        <v>0.410488385209873</v>
       </c>
       <c r="J6">
-        <v>0.4169700974064292</v>
+        <v>0.410488385209873</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.34219701339287</v>
+        <v>5.348457333333333</v>
       </c>
       <c r="N6">
-        <v>5.34219701339287</v>
+        <v>16.045372</v>
       </c>
       <c r="O6">
-        <v>0.6104165821201774</v>
+        <v>0.4996811083875221</v>
       </c>
       <c r="P6">
-        <v>0.6104165821201774</v>
+        <v>0.499681108387522</v>
       </c>
       <c r="Q6">
-        <v>63.79908398658083</v>
+        <v>66.45448431161554</v>
       </c>
       <c r="R6">
-        <v>63.79908398658083</v>
+        <v>598.09035880454</v>
       </c>
       <c r="S6">
-        <v>0.2545254617051499</v>
+        <v>0.2051132913018734</v>
       </c>
       <c r="T6">
-        <v>0.2545254617051499</v>
+        <v>0.2051132913018734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.9424805612067</v>
+        <v>12.42498166666667</v>
       </c>
       <c r="H7">
-        <v>11.9424805612067</v>
+        <v>37.274945</v>
       </c>
       <c r="I7">
-        <v>0.4169700974064292</v>
+        <v>0.410488385209873</v>
       </c>
       <c r="J7">
-        <v>0.4169700974064292</v>
+        <v>0.410488385209873</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.40952626849712</v>
+        <v>5.355284000000001</v>
       </c>
       <c r="N7">
-        <v>3.40952626849712</v>
+        <v>16.065852</v>
       </c>
       <c r="O7">
-        <v>0.3895834178798225</v>
+        <v>0.500318891612478</v>
       </c>
       <c r="P7">
-        <v>0.3895834178798225</v>
+        <v>0.5003188916124779</v>
       </c>
       <c r="Q7">
-        <v>40.71820118445047</v>
+        <v>66.53930551979334</v>
       </c>
       <c r="R7">
-        <v>40.71820118445047</v>
+        <v>598.85374967814</v>
       </c>
       <c r="S7">
-        <v>0.1624446357012792</v>
+        <v>0.2053750939079995</v>
       </c>
       <c r="T7">
-        <v>0.1624446357012792</v>
+        <v>0.2053750939079995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.247456298771519</v>
+        <v>9.235186000000001</v>
       </c>
       <c r="H8">
-        <v>8.247456298771519</v>
+        <v>27.705558</v>
       </c>
       <c r="I8">
-        <v>0.2879588238497873</v>
+        <v>0.305106010612718</v>
       </c>
       <c r="J8">
-        <v>0.2879588238497873</v>
+        <v>0.305106010612718</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.34219701339287</v>
+        <v>5.348457333333333</v>
       </c>
       <c r="N8">
-        <v>5.34219701339287</v>
+        <v>16.045372</v>
       </c>
       <c r="O8">
-        <v>0.6104165821201774</v>
+        <v>0.4996811083875221</v>
       </c>
       <c r="P8">
-        <v>0.6104165821201774</v>
+        <v>0.499681108387522</v>
       </c>
       <c r="Q8">
-        <v>44.05953640738542</v>
+        <v>49.39399828639733</v>
       </c>
       <c r="R8">
-        <v>44.05953640738542</v>
+        <v>444.545984577576</v>
       </c>
       <c r="S8">
-        <v>0.1757748410457333</v>
+        <v>0.152455709558658</v>
       </c>
       <c r="T8">
-        <v>0.1757748410457333</v>
+        <v>0.152455709558658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.247456298771519</v>
+        <v>9.235186000000001</v>
       </c>
       <c r="H9">
-        <v>8.247456298771519</v>
+        <v>27.705558</v>
       </c>
       <c r="I9">
-        <v>0.2879588238497873</v>
+        <v>0.305106010612718</v>
       </c>
       <c r="J9">
-        <v>0.2879588238497873</v>
+        <v>0.305106010612718</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.40952626849712</v>
+        <v>5.355284000000001</v>
       </c>
       <c r="N9">
-        <v>3.40952626849712</v>
+        <v>16.065852</v>
       </c>
       <c r="O9">
-        <v>0.3895834178798225</v>
+        <v>0.500318891612478</v>
       </c>
       <c r="P9">
-        <v>0.3895834178798225</v>
+        <v>0.5003188916124779</v>
       </c>
       <c r="Q9">
-        <v>28.11991889894353</v>
+        <v>49.45704382282401</v>
       </c>
       <c r="R9">
-        <v>28.11991889894353</v>
+        <v>445.1133944054161</v>
       </c>
       <c r="S9">
-        <v>0.1121839828040539</v>
+        <v>0.15265030105406</v>
       </c>
       <c r="T9">
-        <v>0.1121839828040539</v>
+        <v>0.15265030105406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.17165114886249</v>
+        <v>1.197203333333333</v>
       </c>
       <c r="H10">
-        <v>1.17165114886249</v>
+        <v>3.59161</v>
       </c>
       <c r="I10">
-        <v>0.04090804177270383</v>
+        <v>0.03955241756100866</v>
       </c>
       <c r="J10">
-        <v>0.04090804177270383</v>
+        <v>0.03955241756100866</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.34219701339287</v>
+        <v>5.348457333333333</v>
       </c>
       <c r="N10">
-        <v>5.34219701339287</v>
+        <v>16.045372</v>
       </c>
       <c r="O10">
-        <v>0.6104165821201774</v>
+        <v>0.4996811083875221</v>
       </c>
       <c r="P10">
-        <v>0.6104165821201774</v>
+        <v>0.499681108387522</v>
       </c>
       <c r="Q10">
-        <v>6.259191268191519</v>
+        <v>6.403190947657778</v>
       </c>
       <c r="R10">
-        <v>6.259191268191519</v>
+        <v>57.62871852892</v>
       </c>
       <c r="S10">
-        <v>0.02497094704012331</v>
+        <v>0.0197635958462909</v>
       </c>
       <c r="T10">
-        <v>0.02497094704012331</v>
+        <v>0.0197635958462909</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.17165114886249</v>
+        <v>1.197203333333333</v>
       </c>
       <c r="H11">
-        <v>1.17165114886249</v>
+        <v>3.59161</v>
       </c>
       <c r="I11">
-        <v>0.04090804177270383</v>
+        <v>0.03955241756100866</v>
       </c>
       <c r="J11">
-        <v>0.04090804177270383</v>
+        <v>0.03955241756100866</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.40952626849712</v>
+        <v>5.355284000000001</v>
       </c>
       <c r="N11">
-        <v>3.40952626849712</v>
+        <v>16.065852</v>
       </c>
       <c r="O11">
-        <v>0.3895834178798225</v>
+        <v>0.500318891612478</v>
       </c>
       <c r="P11">
-        <v>0.3895834178798225</v>
+        <v>0.5003188916124779</v>
       </c>
       <c r="Q11">
-        <v>3.99477536956149</v>
+        <v>6.411363855746668</v>
       </c>
       <c r="R11">
-        <v>3.99477536956149</v>
+        <v>57.70227470172001</v>
       </c>
       <c r="S11">
-        <v>0.01593709473258051</v>
+        <v>0.01978882171471777</v>
       </c>
       <c r="T11">
-        <v>0.01593709473258051</v>
+        <v>0.01978882171471776</v>
       </c>
     </row>
   </sheetData>
